--- a/data/raw.data/Hermit crabs.xlsx
+++ b/data/raw.data/Hermit crabs.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\howardb\Documents\Academic Projects\Shellfish Mesocosms\Phase 1 - Feeding Trials\Data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\howardb\Documents\Academic Projects\CFRA 2021 - Mesocosms\1_viu.feeding.trials\data\raw.data\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -281,9 +281,6 @@
     <t>GRA-Sm10</t>
   </si>
   <si>
-    <t>EGC_30</t>
-  </si>
-  <si>
     <t>LV/AP/MY</t>
   </si>
   <si>
@@ -342,6 +339,9 @@
   </si>
   <si>
     <t>EGC-33</t>
+  </si>
+  <si>
+    <t>EGC-30</t>
   </si>
 </sst>
 </file>
@@ -664,7 +664,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A44" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="I61" sqref="I61"/>
+      <selection pane="bottomLeft" activeCell="H53" sqref="H53"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -2492,7 +2492,7 @@
         <v>1.0500000000000003</v>
       </c>
       <c r="M42" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="43" spans="1:14" x14ac:dyDescent="0.35">
@@ -2535,7 +2535,7 @@
         <v>0.5</v>
       </c>
       <c r="M43" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="44" spans="1:14" x14ac:dyDescent="0.35">
@@ -2577,7 +2577,7 @@
         <v>0</v>
       </c>
       <c r="M44" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="45" spans="1:14" x14ac:dyDescent="0.35">
@@ -2619,7 +2619,7 @@
         <v>0</v>
       </c>
       <c r="M45" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="46" spans="1:14" x14ac:dyDescent="0.35">
@@ -2636,7 +2636,7 @@
         <v>10</v>
       </c>
       <c r="E46" t="s">
-        <v>85</v>
+        <v>105</v>
       </c>
       <c r="F46">
         <v>8</v>
@@ -2662,7 +2662,7 @@
         <v>0.5</v>
       </c>
       <c r="M46" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="47" spans="1:14" x14ac:dyDescent="0.35">
@@ -2670,7 +2670,7 @@
         <v>44518</v>
       </c>
       <c r="B47" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C47" s="1" t="s">
         <v>69</v>
@@ -2679,7 +2679,7 @@
         <v>2</v>
       </c>
       <c r="E47" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="F47">
         <v>8</v>
@@ -2705,7 +2705,7 @@
         <v>0.84999999999999987</v>
       </c>
       <c r="M47" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="48" spans="1:14" x14ac:dyDescent="0.35">
@@ -2713,7 +2713,7 @@
         <v>44518</v>
       </c>
       <c r="B48" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C48" s="1" t="s">
         <v>69</v>
@@ -2722,7 +2722,7 @@
         <v>4</v>
       </c>
       <c r="E48" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="F48">
         <v>8</v>
@@ -2748,7 +2748,7 @@
         <v>1.0250000000000001</v>
       </c>
       <c r="M48" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="49" spans="1:13" x14ac:dyDescent="0.35">
@@ -2756,7 +2756,7 @@
         <v>44518</v>
       </c>
       <c r="B49" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C49" s="1" t="s">
         <v>69</v>
@@ -2765,7 +2765,7 @@
         <v>6</v>
       </c>
       <c r="E49" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="F49">
         <v>8</v>
@@ -2790,7 +2790,7 @@
         <v>0</v>
       </c>
       <c r="M49" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="50" spans="1:13" x14ac:dyDescent="0.35">
@@ -2798,7 +2798,7 @@
         <v>44518</v>
       </c>
       <c r="B50" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C50" s="1" t="s">
         <v>69</v>
@@ -2807,7 +2807,7 @@
         <v>8</v>
       </c>
       <c r="E50" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="F50">
         <v>8</v>
@@ -2832,7 +2832,7 @@
         <v>0</v>
       </c>
       <c r="M50" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="51" spans="1:13" x14ac:dyDescent="0.35">
@@ -2840,7 +2840,7 @@
         <v>44518</v>
       </c>
       <c r="B51" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C51" s="1" t="s">
         <v>69</v>
@@ -2849,7 +2849,7 @@
         <v>10</v>
       </c>
       <c r="E51" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F51">
         <v>8</v>
@@ -2874,7 +2874,7 @@
         <v>0</v>
       </c>
       <c r="M51" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="52" spans="1:13" x14ac:dyDescent="0.35">
@@ -2882,7 +2882,7 @@
         <v>44513</v>
       </c>
       <c r="B52" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C52" s="1" t="s">
         <v>69</v>
@@ -2891,7 +2891,7 @@
         <v>2</v>
       </c>
       <c r="E52" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="F52">
         <v>8</v>
@@ -2916,7 +2916,7 @@
         <v>0</v>
       </c>
       <c r="M52" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="53" spans="1:13" x14ac:dyDescent="0.35">
@@ -2924,7 +2924,7 @@
         <v>44513</v>
       </c>
       <c r="B53" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C53" s="1" t="s">
         <v>69</v>
@@ -2933,7 +2933,7 @@
         <v>4</v>
       </c>
       <c r="E53" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="F53">
         <v>8</v>
@@ -2958,7 +2958,7 @@
         <v>0</v>
       </c>
       <c r="M53" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="54" spans="1:13" x14ac:dyDescent="0.35">
@@ -2966,7 +2966,7 @@
         <v>44513</v>
       </c>
       <c r="B54" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C54" s="1" t="s">
         <v>69</v>
@@ -2975,7 +2975,7 @@
         <v>6</v>
       </c>
       <c r="E54" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="F54">
         <v>8</v>
@@ -3000,7 +3000,7 @@
         <v>0</v>
       </c>
       <c r="M54" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="55" spans="1:13" x14ac:dyDescent="0.35">
@@ -3008,7 +3008,7 @@
         <v>44513</v>
       </c>
       <c r="B55" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C55" s="1" t="s">
         <v>69</v>
@@ -3041,7 +3041,7 @@
         <v>54</v>
       </c>
       <c r="M55" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="56" spans="1:13" x14ac:dyDescent="0.35">
@@ -3049,7 +3049,7 @@
         <v>44513</v>
       </c>
       <c r="B56" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C56" s="1" t="s">
         <v>69</v>
@@ -3058,7 +3058,7 @@
         <v>10</v>
       </c>
       <c r="E56" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="F56">
         <v>8</v>
@@ -3073,7 +3073,7 @@
         <v>16.2</v>
       </c>
       <c r="J56">
-        <f t="shared" ref="J55:J61" si="4">F56-H56</f>
+        <f t="shared" ref="J56:J61" si="4">F56-H56</f>
         <v>0</v>
       </c>
       <c r="K56">
@@ -3083,7 +3083,7 @@
         <v>0</v>
       </c>
       <c r="M56" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="57" spans="1:13" x14ac:dyDescent="0.35">
@@ -3091,7 +3091,7 @@
         <v>44519</v>
       </c>
       <c r="B57" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="C57" s="1" t="s">
         <v>69</v>
@@ -3124,7 +3124,7 @@
         <v>54</v>
       </c>
       <c r="M57" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="58" spans="1:13" x14ac:dyDescent="0.35">
@@ -3132,7 +3132,7 @@
         <v>44519</v>
       </c>
       <c r="B58" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="C58" s="1" t="s">
         <v>69</v>
@@ -3141,7 +3141,7 @@
         <v>4</v>
       </c>
       <c r="E58" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="F58">
         <v>8</v>
@@ -3166,7 +3166,7 @@
         <v>0</v>
       </c>
       <c r="M58" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="59" spans="1:13" x14ac:dyDescent="0.35">
@@ -3174,7 +3174,7 @@
         <v>44519</v>
       </c>
       <c r="B59" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="C59" s="1" t="s">
         <v>69</v>
@@ -3183,7 +3183,7 @@
         <v>6</v>
       </c>
       <c r="E59" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="F59">
         <v>8</v>
@@ -3208,7 +3208,7 @@
         <v>0</v>
       </c>
       <c r="M59" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="60" spans="1:13" x14ac:dyDescent="0.35">
@@ -3216,7 +3216,7 @@
         <v>44519</v>
       </c>
       <c r="B60" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="C60" s="1" t="s">
         <v>69</v>
@@ -3225,7 +3225,7 @@
         <v>8</v>
       </c>
       <c r="E60" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="F60">
         <v>8</v>
@@ -3250,7 +3250,7 @@
         <v>0</v>
       </c>
       <c r="M60" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="61" spans="1:13" x14ac:dyDescent="0.35">
@@ -3258,7 +3258,7 @@
         <v>44519</v>
       </c>
       <c r="B61" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="C61" s="1" t="s">
         <v>69</v>
@@ -3267,7 +3267,7 @@
         <v>10</v>
       </c>
       <c r="E61" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="F61">
         <v>8</v>
@@ -3292,7 +3292,7 @@
         <v>0</v>
       </c>
       <c r="M61" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
   </sheetData>
